--- a/results/I3_N5_M2_T45_C100_DepCentral_s4_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s4_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1855.122774347064</v>
+        <v>1094.391386707094</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.00800013542175293</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.80250981242274</v>
+        <v>27.97991409564075</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.38488900496456</v>
+        <v>12.734137167766</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.175153539594582</v>
+        <v>5.145609779219563</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1695.970000000012</v>
+        <v>990</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>143.56</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17.43528232449546</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>32.43528232449546</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24.08603416169402</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.73413716776599</v>
+        <v>36.78556967132671</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>32.81602556806575</v>
+        <v>42.73413716776599</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1032,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1046,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1060,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1127,85 +1127,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1319,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1330,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1341,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1352,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1363,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>251.9700000000012</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
@@ -1374,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>267.5200000000012</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
@@ -1385,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>268.9750000000012</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15">
@@ -1396,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>272.6900000000012</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
@@ -1407,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>264.1550000000012</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
@@ -1418,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>111.5650000000008</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1429,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>120.7300000000008</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1440,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>111.1650000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1451,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>116.5300000000008</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1462,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>116.9850000000008</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1473,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>59.47000000000007</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23">
@@ -1484,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.50500000000008</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24">
@@ -1495,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.01500000000007</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -1506,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>66.88500000000008</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
@@ -1517,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>68.49000000000007</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
@@ -1528,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>171.4600000000005</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
@@ -1539,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>184.55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1550,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>174.3400000000005</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -1561,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>179.2150000000005</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
@@ -1572,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>178.8850000000005</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -1583,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>251.9700000000012</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
@@ -1594,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>267.5200000000012</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
@@ -1605,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>268.9750000000012</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -1616,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>272.6900000000012</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
@@ -1627,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>264.1550000000012</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -1638,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>107.9950000000001</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38">
@@ -1649,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>105.5100000000001</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39">
@@ -1660,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>104.6650000000001</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40">
@@ -1671,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>104.5050000000001</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41">
@@ -1682,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>96.60500000000008</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>151.9700000000012</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -1740,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>167.5200000000012</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -1751,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>168.9750000000012</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1762,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>172.6900000000012</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1773,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>164.1550000000012</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -1784,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.995000000000005</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1795,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>5.510000000000005</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1806,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4.665000000000006</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -1817,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.504999999999995</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1828,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1985,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2040,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2191,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2202,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2213,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2227,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2235,10 +2165,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2246,10 +2176,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2257,10 +2187,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2268,10 +2198,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2279,10 +2209,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2290,10 +2220,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2301,10 +2231,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2312,10 +2242,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2323,10 +2253,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2337,53 +2267,9 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
